--- a/medicine/Handicap/Handicap.fr/Handicap.fr.xlsx
+++ b/medicine/Handicap/Handicap.fr/Handicap.fr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Handicap.fr est un site français d'actualité 
-lancé en 2002[1], il adopte le slogan « L'information et les services. Du handicap à l'autonomie » et se définit comme le site des personnes concernées par le handicap. 
-La Commission paritaire des publications et des agences de presse (CPPAP) a reconnu à Handicap.fr la qualité de service de presse en ligne en application de l'article 1er de la loi no 86-897 du 1er août 1986 portant réforme du régime juridique de la presse. Handicap.fr est enregistré sous le numéro CPPAP suivant : 0621 Z 93929[2].[source insuffisante]
+lancé en 2002, il adopte le slogan « L'information et les services. Du handicap à l'autonomie » et se définit comme le site des personnes concernées par le handicap. 
+La Commission paritaire des publications et des agences de presse (CPPAP) a reconnu à Handicap.fr la qualité de service de presse en ligne en application de l'article 1er de la loi no 86-897 du 1er août 1986 portant réforme du régime juridique de la presse. Handicap.fr est enregistré sous le numéro CPPAP suivant : 0621 Z 93929.[source insuffisante]
 </t>
         </is>
       </c>
@@ -514,15 +526,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site Handicap.fr naît le 2 septembre 2002, de l'impulsion de son fondateur Gilles Barbier sous le nom d'Handica.com[3][source insuffisante]
-Il adopte le nom d'Handicap.fr le 1er mai 2008[4].
-En 2003 est créé, par Handicap.fr, le festival « Cinéma et Handicap[5] ».
-En 2010, sera créé le festival « Dans la boîte[6] » qui mettra en avant des courts-métrages dédiés à l'emploi des travailleurs handicapé.
-En 2011, d'Handicap.fr crée un partenariat autour d'un salon de recrutement en ligne [7]. Handicap.fr devient aussi le partenaire média du groupe de réflexion « Hangagés[8] ».
-Divers services d'information sont ajoutés sur le site comme un annuaire et un annuaire des places de parking destinées aux personnes en situation de Handicap[9],[10].
-En 2017, Handicap.fr lance des salons de recrutement virtuels sous la marque Hello-Handicap.fr[11],[12],[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site Handicap.fr naît le 2 septembre 2002, de l'impulsion de son fondateur Gilles Barbier sous le nom d'Handica.com[source insuffisante]
+Il adopte le nom d'Handicap.fr le 1er mai 2008.
+En 2003 est créé, par Handicap.fr, le festival « Cinéma et Handicap ».
+En 2010, sera créé le festival « Dans la boîte » qui mettra en avant des courts-métrages dédiés à l'emploi des travailleurs handicapé.
+En 2011, d'Handicap.fr crée un partenariat autour d'un salon de recrutement en ligne . Handicap.fr devient aussi le partenaire média du groupe de réflexion « Hangagés ».
+Divers services d'information sont ajoutés sur le site comme un annuaire et un annuaire des places de parking destinées aux personnes en situation de Handicap,.
+En 2017, Handicap.fr lance des salons de recrutement virtuels sous la marque Hello-Handicap.fr.
 </t>
         </is>
       </c>
@@ -551,14 +565,16 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le site traite des sujets suivants :
-les évolutions législatives et les droits spécifiques des personnes en situation de handicap[14] ;
+les évolutions législatives et les droits spécifiques des personnes en situation de handicap ;
 la thématique « Travail et handicap » ;
-l'information sur les différents types de handicap[15]  ;
+l'information sur les différents types de handicap  ;
 les nouveautés techniques ou les recherches en lien avec le handicap ;
-les sujets de société liés au handicap (individualisation de l'AAH, assistant sexuel, etc.)[16]  ;
+les sujets de société liés au handicap (individualisation de l'AAH, assistant sexuel, etc.)  ;
 les grands événements sportifs (jeux paralympiques, jeux adaptés, etc.) ;
 , etc.</t>
         </is>
